--- a/Some result data/Gene Set Enrichment results/Gene Set Enrichment - WikiPathways/GSEresultsWP_darkred_HCM_.xlsx
+++ b/Some result data/Gene Set Enrichment results/Gene Set Enrichment - WikiPathways/GSEresultsWP_darkred_HCM_.xlsx
@@ -168,16 +168,16 @@
         <v>-0.9230769230769231</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.7019453030315823</v>
+        <v>-2.6524319090109687</v>
       </c>
       <c r="F2" t="n">
-        <v>3.236650538893296E-5</v>
+        <v>6.330237544809098E-5</v>
       </c>
       <c r="G2" t="n">
-        <v>7.76796129334391E-4</v>
+        <v>0.0015192570107541836</v>
       </c>
       <c r="H2" t="n">
-        <v>7.495401247963422E-4</v>
+        <v>0.001465949747218949</v>
       </c>
       <c r="I2" t="n">
         <v>11.0</v>
@@ -203,16 +203,16 @@
         <v>-0.68</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.210163605435755</v>
+        <v>-2.2556893759404035</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0025299993402146804</v>
+        <v>0.002462712123719609</v>
       </c>
       <c r="G3" t="n">
-        <v>0.030359992082576163</v>
+        <v>0.029552545484635307</v>
       </c>
       <c r="H3" t="n">
-        <v>0.029294729202485773</v>
+        <v>0.028515614064121786</v>
       </c>
       <c r="I3" t="n">
         <v>25.0</v>
